--- a/data/vgp_database/Robinson_Antincline_intrusions.xlsx
+++ b/data/vgp_database/Robinson_Antincline_intrusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F838087E-1EA6-144A-A6AE-312CE2EA1B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F1A332-41BD-D744-8321-175F71B1430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="580" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="90">
   <si>
     <t>Name:</t>
   </si>
@@ -739,51 +739,6 @@
   <si>
     <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</t>
   </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;3</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;4</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;5</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;6</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;7</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;8</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;9</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;10</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;11</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;12</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;13</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;14</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;15</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;16</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;17</t>
-  </si>
 </sst>
 </file>
 
@@ -1149,7 +1104,7 @@
   <dimension ref="A1:AQ1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+      <selection activeCell="AP10" sqref="AP10:AP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1161,7 +1116,10 @@
     <col min="25" max="25" width="16.1640625" customWidth="1"/>
     <col min="26" max="31" width="10.6640625" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" customWidth="1"/>
-    <col min="33" max="43" width="10.6640625" customWidth="1"/>
+    <col min="33" max="37" width="10.6640625" customWidth="1"/>
+    <col min="38" max="38" width="28.83203125" customWidth="1"/>
+    <col min="39" max="39" width="27.5" customWidth="1"/>
+    <col min="40" max="43" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1962,8 +1920,9 @@
       <c r="AO10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP10" s="15" t="s">
-        <v>90</v>
+      <c r="AP10" s="15" t="str">
+        <f>AP9</f>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ10" s="7"/>
     </row>
@@ -2071,8 +2030,9 @@
       <c r="AO11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP11" s="15" t="s">
-        <v>91</v>
+      <c r="AP11" s="15" t="str">
+        <f t="shared" ref="AP11:AP24" si="0">AP10</f>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ11" s="7"/>
     </row>
@@ -2180,8 +2140,9 @@
       <c r="AO12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP12" s="15" t="s">
-        <v>92</v>
+      <c r="AP12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ12" s="7"/>
     </row>
@@ -2289,8 +2250,9 @@
       <c r="AO13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP13" s="15" t="s">
-        <v>93</v>
+      <c r="AP13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ13" s="7"/>
     </row>
@@ -2398,8 +2360,9 @@
       <c r="AO14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP14" s="15" t="s">
-        <v>94</v>
+      <c r="AP14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ14" s="7"/>
     </row>
@@ -2507,8 +2470,9 @@
       <c r="AO15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP15" s="15" t="s">
-        <v>95</v>
+      <c r="AP15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ15" s="7"/>
     </row>
@@ -2616,8 +2580,9 @@
       <c r="AO16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP16" s="15" t="s">
-        <v>96</v>
+      <c r="AP16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ16" s="7"/>
     </row>
@@ -2725,8 +2690,9 @@
       <c r="AO17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" s="15" t="s">
-        <v>97</v>
+      <c r="AP17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ17" s="7"/>
     </row>
@@ -2834,8 +2800,9 @@
       <c r="AO18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP18" s="15" t="s">
-        <v>98</v>
+      <c r="AP18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ18" s="7"/>
     </row>
@@ -2943,8 +2910,9 @@
       <c r="AO19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP19" s="15" t="s">
-        <v>99</v>
+      <c r="AP19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ19" s="7"/>
     </row>
@@ -3052,8 +3020,9 @@
       <c r="AO20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP20" s="15" t="s">
-        <v>100</v>
+      <c r="AP20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ20" s="7"/>
     </row>
@@ -3161,8 +3130,9 @@
       <c r="AO21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP21" s="15" t="s">
-        <v>101</v>
+      <c r="AP21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ21" s="7"/>
     </row>
@@ -3270,8 +3240,9 @@
       <c r="AO22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP22" s="15" t="s">
-        <v>102</v>
+      <c r="AP22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ22" s="7"/>
     </row>
@@ -3379,8 +3350,9 @@
       <c r="AO23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP23" s="15" t="s">
-        <v>103</v>
+      <c r="AP23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ23" s="7"/>
     </row>
@@ -3488,8 +3460,9 @@
       <c r="AO24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP24" s="15" t="s">
-        <v>104</v>
+      <c r="AP24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/0016-7606(1988)100&lt;0492:PAIDOT&gt;2.3.CO;2</v>
       </c>
       <c r="AQ24" s="7"/>
     </row>
